--- a/Work allocation.xlsx
+++ b/Work allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\UWA Data Bootcamp\18. Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\UWA Data Bootcamp\18. Project 2\Project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FCAA32-C6E2-4DB5-B92C-647C9F0B5906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E54122-F561-4785-9693-3D7FF92FFFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20BA0EC7-7DF8-4BE8-AAD7-E60F10A95A69}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{20BA0EC7-7DF8-4BE8-AAD7-E60F10A95A69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Output</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>1. Clean up data using panda dataframe</t>
+  </si>
+  <si>
+    <t>Code consolidation</t>
   </si>
 </sst>
 </file>
@@ -580,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F689A68A-4E99-4027-9313-5972ED85C8C1}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +644,9 @@
       <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -657,7 +662,9 @@
       <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -673,7 +680,9 @@
       <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -698,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -715,7 +724,9 @@
       <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -855,6 +866,20 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F18" xr:uid="{F689A68A-4E99-4027-9313-5972ED85C8C1}"/>
